--- a/sputnik/personal/uch/uch55.xlsx
+++ b/sputnik/personal/uch/uch55.xlsx
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -39,7 +36,10 @@
     <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №55</t>
   </si>
 </sst>
 </file>
@@ -77,7 +77,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,32 +113,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -175,15 +149,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +471,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -509,10 +485,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -521,11 +499,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>9737.2800000000007</v>
@@ -533,11 +511,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>43385</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -545,11 +523,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
         <v>9599.0400000000009</v>
@@ -557,11 +535,11 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>43711</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7">
@@ -570,13 +548,9 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="8">
-        <v>138.24</v>
-      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -591,9 +565,6 @@
       <c r="D9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch55.xlsx
+++ b/sputnik/personal/uch/uch55.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №55</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -161,6 +164,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -471,7 +475,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,9 +551,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10800</v>
+      </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch55.xlsx
+++ b/sputnik/personal/uch/uch55.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -149,9 +152,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -165,6 +165,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,7 +478,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -489,10 +492,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -503,7 +506,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -515,7 +518,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>43385</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -527,7 +530,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -539,7 +542,7 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>43711</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -551,10 +554,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>43952</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="8">
@@ -563,9 +566,15 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>11517.12</v>
+      </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch55.xlsx
+++ b/sputnik/personal/uch/uch55.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>пени оплачены</t>
+  </si>
+  <si>
+    <t>пени начислены</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -167,6 +173,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,10 +587,46 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="13">
+        <v>44368</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <v>10661.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44368</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>338.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>44368</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2803.89</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch55.xlsx
+++ b/sputnik/personal/uch/uch55.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -51,14 +51,14 @@
     <t>пени оплачены</t>
   </si>
   <si>
-    <t>пени начислены</t>
+    <t>пени начислены за 263 к д  просрочки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +74,15 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +92,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -155,15 +174,10 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -171,12 +185,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,10 +512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A11" sqref="A11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -501,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -515,7 +543,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -527,7 +555,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>43385</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -539,94 +567,106 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>43586</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="13">
         <v>9599.0400000000009</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>43711</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7">
+      <c r="C6" s="14"/>
+      <c r="D6" s="13">
         <v>9599.0400000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>43711</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17">
+        <v>138.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>43952</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="16">
         <v>10800</v>
       </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>44317</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C9" s="6">
         <v>11517.12</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>44368</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16">
         <v>10661.16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>44368</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22">
         <v>338.84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
         <v>44368</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="22">
         <v>2803.89</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
